--- a/PROJETS/HSN/SQL/gracethd/Controle_a_faire_RBAL.xlsx
+++ b/PROJETS/HSN/SQL/gracethd/Controle_a_faire_RBAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\20-MOE70-HSN\04-Dossier travail\10-RBAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\20-MOE70-HSN\07-Scripts\SQL\gracethd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D88BE71B-4C34-479E-B24B-4FCC26CDC79C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0294501-D741-4A33-8893-6AA978ACF249}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="6648" xr2:uid="{736CBBFD-67D2-4714-8F32-E38D4FD709ED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{736CBBFD-67D2-4714-8F32-E38D4FD709ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Contrôle RBAL</t>
   </si>
@@ -88,13 +88,16 @@
   </si>
   <si>
     <t>Objectif final</t>
+  </si>
+  <si>
+    <t>Si un bal pro supérieur à 0 il faut un type de pro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +113,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +132,17 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -171,11 +192,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -186,8 +210,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,29 +527,30 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="72.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -532,7 +558,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -540,7 +567,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -548,55 +576,68 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -604,7 +645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
